--- a/public/company/employee/sample.xlsx
+++ b/public/company/employee/sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
   <si>
     <t xml:space="preserve">First Name</t>
   </si>
@@ -31,6 +31,15 @@
     <t xml:space="preserve">Last Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Date of Birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">Country Code</t>
   </si>
   <si>
@@ -43,9 +52,6 @@
     <t xml:space="preserve">Landline No.</t>
   </si>
   <si>
-    <t xml:space="preserve">Email ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">Whatsapp Number</t>
   </si>
   <si>
@@ -58,16 +64,16 @@
     <t xml:space="preserve">Youtube Link</t>
   </si>
   <si>
-    <t xml:space="preserve">Twitter Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address 3</t>
+    <t xml:space="preserve">Other social media links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street/Avenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartment / No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra indications</t>
   </si>
   <si>
     <t xml:space="preserve">Pincode</t>
@@ -85,15 +91,18 @@
     <t xml:space="preserve">Country</t>
   </si>
   <si>
-    <t xml:space="preserve">Category 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category 2</t>
+    <t xml:space="preserve">Category </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subcategories</t>
   </si>
   <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
+    <t xml:space="preserve">Brand Name</t>
+  </si>
+  <si>
     <t xml:space="preserve">5 words best describes you</t>
   </si>
   <si>
@@ -106,9 +115,15 @@
     <t xml:space="preserve">Do you have FSSAI?</t>
   </si>
   <si>
+    <t xml:space="preserve">If yes, please provide us the number? (FSSAI)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Do you have GST No.?</t>
   </si>
   <si>
+    <t xml:space="preserve">If yes, please provide us the number? (GST)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Terra</t>
   </si>
   <si>
@@ -118,6 +133,12 @@
     <t xml:space="preserve">Johnston</t>
   </si>
   <si>
+    <t xml:space="preserve">20-05-1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">male</t>
+  </si>
+  <si>
     <t xml:space="preserve">terra.johnston@example.com</t>
   </si>
   <si>
@@ -151,9 +172,15 @@
     <t xml:space="preserve">India</t>
   </si>
   <si>
+    <t xml:space="preserve">one</t>
+  </si>
+  <si>
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">brand name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hard-worker, quick learner</t>
   </si>
   <si>
@@ -176,6 +203,15 @@
   </si>
   <si>
     <t xml:space="preserve">Oliver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-12-1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">two</t>
   </si>
   <si>
     <t xml:space="preserve">Non-veg</t>
@@ -212,7 +248,6 @@
       <family val="0"/>
     </font>
     <font>
-      <u val="single"/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -220,6 +255,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <u val="single"/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -273,7 +309,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -286,19 +322,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -320,41 +356,52 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z16" activeCellId="0" sqref="Z16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF1" activeCellId="0" sqref="AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="36.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="30.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="25.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="15.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="19.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="22.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="18.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="36.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="30.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="25.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="18.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="0" width="22.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="23.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="24.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="41" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,186 +488,231 @@
       </c>
       <c r="AC1" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="n">
         <v>91</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="H2" s="1" t="n">
         <v>1234567890</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="I2" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <v>1234567890</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="K2" s="1" t="n">
         <v>1234567890</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="1" t="n">
+      <c r="L2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="1" t="n">
         <v>6456</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="1" t="n">
+      <c r="Q2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="1" t="n">
         <v>382350</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>41</v>
+      <c r="T2" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>6456</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>382350</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="X3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>1234567890</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>1234567890</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1234567890</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>6456</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="1" t="n">
-        <v>382350</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="terra.johnston@example.com"/>
-    <hyperlink ref="J2" r:id="rId2" display="https://www.facebook.com/"/>
-    <hyperlink ref="K2" r:id="rId3" display="https://www.instagram.com/?hl=en"/>
-    <hyperlink ref="L2" r:id="rId4" display="https://www.youtube.com/"/>
-    <hyperlink ref="M2" r:id="rId5" display="https://twitter.com/"/>
-    <hyperlink ref="H3" r:id="rId6" display="terra.johnston@example.com"/>
-    <hyperlink ref="J3" r:id="rId7" display="https://www.facebook.com/"/>
-    <hyperlink ref="K3" r:id="rId8" display="https://www.instagram.com/?hl=en"/>
-    <hyperlink ref="L3" r:id="rId9" display="https://www.youtube.com/"/>
-    <hyperlink ref="M3" r:id="rId10" display="https://twitter.com/"/>
+    <hyperlink ref="F2" r:id="rId1" display="terra.johnston@example.com"/>
+    <hyperlink ref="L2" r:id="rId2" display="https://www.facebook.com/"/>
+    <hyperlink ref="M2" r:id="rId3" display="https://www.instagram.com/?hl=en"/>
+    <hyperlink ref="N2" r:id="rId4" display="https://www.youtube.com/"/>
+    <hyperlink ref="O2" r:id="rId5" display="https://twitter.com/"/>
+    <hyperlink ref="F3" r:id="rId6" display="terra.johnston@example.com"/>
+    <hyperlink ref="L3" r:id="rId7" display="https://www.facebook.com/"/>
+    <hyperlink ref="M3" r:id="rId8" display="https://www.instagram.com/?hl=en"/>
+    <hyperlink ref="N3" r:id="rId9" display="https://www.youtube.com/"/>
+    <hyperlink ref="O3" r:id="rId10" display="https://twitter.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/public/company/employee/sample.xlsx
+++ b/public/company/employee/sample.xlsx
@@ -187,7 +187,7 @@
     <t xml:space="preserve">coding</t>
   </si>
   <si>
-    <t xml:space="preserve">veg</t>
+    <t xml:space="preserve">Veg</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -214,7 +214,7 @@
     <t xml:space="preserve">two</t>
   </si>
   <si>
-    <t xml:space="preserve">Non-veg</t>
+    <t xml:space="preserve">Non-Veg</t>
   </si>
 </sst>
 </file>
@@ -225,7 +225,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -262,11 +262,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -313,7 +308,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -331,10 +326,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -359,14 +350,14 @@
   <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF1" activeCellId="0" sqref="AF1"/>
+      <selection pane="topLeft" activeCell="AD6" activeCellId="0" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="18.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="36.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="36.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.9"/>
@@ -384,16 +375,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="15.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="0" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="23.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="24.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="18.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="13.29"/>
@@ -613,7 +604,7 @@
       <c r="C3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -673,10 +664,10 @@
       <c r="W3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Y3" s="1" t="s">
         <v>63</v>
       </c>
       <c r="Z3" s="1" t="s">
